--- a/past-competitions/problems-database.xlsx
+++ b/past-competitions/problems-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gideon Tong\Documents\GitHub\CodeQuest\past-competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23ABA2C-D00A-42D8-9CE4-0A5B9CEC7993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863CABA-F70C-4170-917D-D8D49BC1A294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1420" windowWidth="20520" windowHeight="12930" xr2:uid="{9AFF80B1-2FDD-49BA-9F8B-87CF455A0979}"/>
+    <workbookView xWindow="1120" yWindow="1420" windowWidth="20520" windowHeight="12940" xr2:uid="{9AFF80B1-2FDD-49BA-9F8B-87CF455A0979}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>circuits</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -427,9 +445,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009FF990-46F2-4A2C-BECD-5761BFAD10EA}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -482,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">C3/214</f>
+        <f t="shared" ref="D3:D36" si="0">C3/214</f>
         <v>1.4018691588785047E-2</v>
       </c>
       <c r="E3" t="s">
@@ -787,6 +808,330 @@
       </c>
       <c r="F19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>C20/117</f>
+        <v>8.5470085470085479E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D36" si="1">C21/117</f>
+        <v>1.7094017094017096E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2013</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>4.2735042735042736E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2013</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>9.4017094017094016E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.11965811965811966</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2013</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/past-competitions/problems-database.xlsx
+++ b/past-competitions/problems-database.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gideon Tong\Documents\GitHub\CodeQuest\past-competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863CABA-F70C-4170-917D-D8D49BC1A294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE68E2-4B79-43BF-A2E0-386F4B3EA6A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1420" windowWidth="20520" windowHeight="12940" xr2:uid="{9AFF80B1-2FDD-49BA-9F8B-87CF455A0979}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{9AFF80B1-2FDD-49BA-9F8B-87CF455A0979}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Problems!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Problems!$E$2:$E$168</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Problems!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Problems!$E$2:$E$168</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -95,11 +105,41 @@
   <si>
     <t>array</t>
   </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>bit manipulation</t>
+  </si>
+  <si>
+    <t>NP-complete</t>
+  </si>
+  <si>
+    <t>minimax</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Count of Category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,8 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +189,3447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[problems-database.xlsx]Graphs!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>graph</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>greedy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bit manipulation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sliding window</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>union find</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>map</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dictionary</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>minimax</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>array</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sort</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>math</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>string</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F51B-4764-BD07-87244ED4EB0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="461248536"/>
+        <c:axId val="461243616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="461248536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461243616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461243616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461248536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Average Times</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Average Times</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{83870F6D-D21A-4451-A9F9-852197D7A5E4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Time</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>479424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C0ACD4-3C19-405B-98FD-8985F4605222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424EF612-7762-473A-85C2-880F00090F4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="304800" y="4451350"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gideon Tong" refreshedDate="43576.084756597222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="167" xr:uid="{212029B9-D7AC-425A-8784-0C7FE14F1DE3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G168" sheet="Problems"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2012" maxValue="2018"/>
+    </cacheField>
+    <cacheField name="Problem" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="24"/>
+    </cacheField>
+    <cacheField name="Points" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="80"/>
+    </cacheField>
+    <cacheField name="Weight" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.996007984031936E-3" maxValue="0.24"/>
+    </cacheField>
+    <cacheField name="Time" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.29940119760479039" maxValue="36"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="14">
+        <s v="math"/>
+        <s v="sort"/>
+        <s v="string"/>
+        <s v="greedy"/>
+        <s v="tree"/>
+        <s v="map"/>
+        <s v="backtracking"/>
+        <s v="dictionary"/>
+        <s v="array"/>
+        <s v="union find"/>
+        <s v="graph"/>
+        <s v="sliding window"/>
+        <s v="bit manipulation"/>
+        <s v="minimax"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="167">
+  <r>
+    <n v="2012"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="9.3457943925233638E-3"/>
+    <n v="1.4018691588785046"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1.4018691588785047E-2"/>
+    <n v="2.1028037383177569"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1.4018691588785047E-2"/>
+    <n v="2.1028037383177569"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1.8691588785046728E-2"/>
+    <n v="2.8037383177570092"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="2.336448598130841E-2"/>
+    <n v="3.5046728971962615"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="2.8037383177570093E-2"/>
+    <n v="4.2056074766355138"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="2.8037383177570093E-2"/>
+    <n v="4.2056074766355138"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="3.2710280373831772E-2"/>
+    <n v="4.9065420560747661"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="3.7383177570093455E-2"/>
+    <n v="5.6074766355140184"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="4.2056074766355138E-2"/>
+    <n v="6.3084112149532707"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="4.6728971962616821E-2"/>
+    <n v="7.009345794392523"/>
+    <x v="3"/>
+    <s v="optimization: minimax"/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="12"/>
+    <n v="11"/>
+    <n v="5.1401869158878503E-2"/>
+    <n v="7.7102803738317753"/>
+    <x v="4"/>
+    <s v="maze: Tremaux's"/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="13"/>
+    <n v="12"/>
+    <n v="5.6074766355140186E-2"/>
+    <n v="8.4112149532710276"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="6.0747663551401869E-2"/>
+    <n v="9.1121495327102799"/>
+    <x v="5"/>
+    <s v="Dijkstra's"/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="15"/>
+    <n v="25"/>
+    <n v="0.11682242990654206"/>
+    <n v="17.523364485981308"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="16"/>
+    <n v="35"/>
+    <n v="0.16355140186915887"/>
+    <n v="24.532710280373831"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="17"/>
+    <n v="30"/>
+    <n v="0.14018691588785046"/>
+    <n v="21.028037383177569"/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <n v="18"/>
+    <n v="25"/>
+    <n v="0.11682242990654206"/>
+    <n v="17.523364485981308"/>
+    <x v="0"/>
+    <s v="circuits"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8.5470085470085479E-3"/>
+    <n v="1.2820512820512822"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1.7094017094017096E-2"/>
+    <n v="2.5641025641025643"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2.564102564102564E-2"/>
+    <n v="3.8461538461538458"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2.564102564102564E-2"/>
+    <n v="3.8461538461538458"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3.4188034188034191E-2"/>
+    <n v="5.1282051282051286"/>
+    <x v="0"/>
+    <s v="time"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="3.4188034188034191E-2"/>
+    <n v="5.1282051282051286"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="4.2735042735042736E-2"/>
+    <n v="6.4102564102564106"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="5.128205128205128E-2"/>
+    <n v="7.6923076923076916"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="5.128205128205128E-2"/>
+    <n v="7.6923076923076916"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="10"/>
+    <n v="7"/>
+    <n v="5.9829059829059832E-2"/>
+    <n v="8.9743589743589745"/>
+    <x v="0"/>
+    <s v="networking"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="11"/>
+    <n v="8"/>
+    <n v="6.8376068376068383E-2"/>
+    <n v="10.256410256410257"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="6.8376068376068383E-2"/>
+    <n v="10.256410256410257"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="8.5470085470085472E-2"/>
+    <n v="12.820512820512821"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="14"/>
+    <n v="10"/>
+    <n v="8.5470085470085472E-2"/>
+    <n v="12.820512820512821"/>
+    <x v="2"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="15"/>
+    <n v="11"/>
+    <n v="9.4017094017094016E-2"/>
+    <n v="14.102564102564102"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="16"/>
+    <n v="14"/>
+    <n v="0.11965811965811966"/>
+    <n v="17.948717948717949"/>
+    <x v="8"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <n v="17"/>
+    <n v="15"/>
+    <n v="0.12820512820512819"/>
+    <n v="19.23076923076923"/>
+    <x v="8"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="1.2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1.2E-2"/>
+    <n v="1.8"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1.6E-2"/>
+    <n v="2.4"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0.02"/>
+    <n v="3"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="2.4E-2"/>
+    <n v="3.6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="2.8000000000000001E-2"/>
+    <n v="4.2"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="3.2000000000000001E-2"/>
+    <n v="4.8"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0.04"/>
+    <n v="6"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="4.8000000000000001E-2"/>
+    <n v="7.2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="5.6000000000000001E-2"/>
+    <n v="8.4"/>
+    <x v="6"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="11"/>
+    <n v="16"/>
+    <n v="6.4000000000000001E-2"/>
+    <n v="9.6"/>
+    <x v="2"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="12"/>
+    <n v="18"/>
+    <n v="7.1999999999999995E-2"/>
+    <n v="10.799999999999999"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="13"/>
+    <n v="25"/>
+    <n v="0.1"/>
+    <n v="15"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="0.12"/>
+    <n v="18"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="15"/>
+    <n v="30"/>
+    <n v="0.12"/>
+    <n v="18"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <n v="16"/>
+    <n v="60"/>
+    <n v="0.24"/>
+    <n v="36"/>
+    <x v="6"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="0.01"/>
+    <n v="1.5"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0.01"/>
+    <n v="1.5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="0.02"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="time"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.02"/>
+    <n v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="0.03"/>
+    <n v="4.5"/>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="0.04"/>
+    <n v="6"/>
+    <x v="6"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="7"/>
+    <n v="25"/>
+    <n v="0.05"/>
+    <n v="7.5"/>
+    <x v="11"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="0.06"/>
+    <n v="9"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="9"/>
+    <n v="35"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.500000000000002"/>
+    <x v="0"/>
+    <s v="graph"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="10"/>
+    <n v="40"/>
+    <n v="0.08"/>
+    <n v="12"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="11"/>
+    <n v="45"/>
+    <n v="0.09"/>
+    <n v="13.5"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="12"/>
+    <n v="50"/>
+    <n v="0.1"/>
+    <n v="15"/>
+    <x v="12"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="13"/>
+    <n v="60"/>
+    <n v="0.12"/>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="NP-complete"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="14"/>
+    <n v="70"/>
+    <n v="0.14000000000000001"/>
+    <n v="21.000000000000004"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <n v="15"/>
+    <n v="80"/>
+    <n v="0.16"/>
+    <n v="24"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1.0752688172043012E-2"/>
+    <n v="1.6129032258064517"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1.0752688172043012E-2"/>
+    <n v="1.6129032258064517"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="2.1505376344086023E-2"/>
+    <n v="3.2258064516129035"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="2.1505376344086023E-2"/>
+    <n v="3.2258064516129035"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="3.2258064516129031E-2"/>
+    <n v="4.838709677419355"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="3.2258064516129031E-2"/>
+    <n v="4.838709677419355"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="7"/>
+    <n v="20"/>
+    <n v="4.3010752688172046E-2"/>
+    <n v="6.4516129032258069"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="4.3010752688172046E-2"/>
+    <n v="6.4516129032258069"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="9"/>
+    <n v="25"/>
+    <n v="5.3763440860215055E-2"/>
+    <n v="8.064516129032258"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="5.3763440860215055E-2"/>
+    <n v="8.064516129032258"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="11"/>
+    <n v="30"/>
+    <n v="6.4516129032258063E-2"/>
+    <n v="9.67741935483871"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="12"/>
+    <n v="35"/>
+    <n v="7.5268817204301078E-2"/>
+    <n v="11.290322580645162"/>
+    <x v="0"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="13"/>
+    <n v="40"/>
+    <n v="8.6021505376344093E-2"/>
+    <n v="12.903225806451614"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="14"/>
+    <n v="45"/>
+    <n v="9.6774193548387094E-2"/>
+    <n v="14.516129032258064"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="15"/>
+    <n v="50"/>
+    <n v="0.10752688172043011"/>
+    <n v="16.129032258064516"/>
+    <x v="0"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="16"/>
+    <n v="55"/>
+    <n v="0.11827956989247312"/>
+    <n v="17.741935483870968"/>
+    <x v="13"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <n v="17"/>
+    <n v="60"/>
+    <n v="0.12903225806451613"/>
+    <n v="19.35483870967742"/>
+    <x v="6"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1.996007984031936E-3"/>
+    <n v="0.29940119760479039"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="9.9800399201596807E-3"/>
+    <n v="1.4970059880239521"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="9.9800399201596807E-3"/>
+    <n v="1.4970059880239521"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="1.9960079840319361E-2"/>
+    <n v="2.9940119760479043"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="1.9960079840319361E-2"/>
+    <n v="2.9940119760479043"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="2.9940119760479042E-2"/>
+    <n v="4.4910179640718564"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="2.9940119760479042E-2"/>
+    <n v="4.4910179640718564"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="3.9920159680638723E-2"/>
+    <n v="5.9880239520958085"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="9"/>
+    <n v="20"/>
+    <n v="3.9920159680638723E-2"/>
+    <n v="5.9880239520958085"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="4.9900199600798403E-2"/>
+    <n v="7.4850299401197606"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="11"/>
+    <n v="25"/>
+    <n v="4.9900199600798403E-2"/>
+    <n v="7.4850299401197606"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="5.9880239520958084E-2"/>
+    <n v="8.9820359281437128"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="13"/>
+    <n v="35"/>
+    <n v="6.9860279441117765E-2"/>
+    <n v="10.479041916167665"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="14"/>
+    <n v="40"/>
+    <n v="7.9840319361277445E-2"/>
+    <n v="11.976047904191617"/>
+    <x v="2"/>
+    <s v="tree"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="15"/>
+    <n v="45"/>
+    <n v="8.9820359281437126E-2"/>
+    <n v="13.473053892215569"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="16"/>
+    <n v="50"/>
+    <n v="9.9800399201596807E-2"/>
+    <n v="14.970059880239521"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="17"/>
+    <n v="70"/>
+    <n v="0.13972055888223553"/>
+    <n v="20.95808383233533"/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="18"/>
+    <n v="80"/>
+    <n v="0.15968063872255489"/>
+    <n v="23.952095808383234"/>
+    <x v="13"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3.6231884057971015E-3"/>
+    <n v="0.54347826086956519"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="7.246376811594203E-3"/>
+    <n v="1.0869565217391304"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1.0869565217391304E-2"/>
+    <n v="1.6304347826086956"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1.4492753623188406E-2"/>
+    <n v="2.1739130434782608"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1.8115942028985508E-2"/>
+    <n v="2.7173913043478262"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="2.1739130434782608E-2"/>
+    <n v="3.2608695652173911"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="2.5362318840579712E-2"/>
+    <n v="3.804347826086957"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="2.8985507246376812E-2"/>
+    <n v="4.3478260869565215"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="3.2608695652173912E-2"/>
+    <n v="4.8913043478260869"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="3.6231884057971016E-2"/>
+    <n v="5.4347826086956523"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="3.9855072463768113E-2"/>
+    <n v="5.9782608695652169"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="4.3478260869565216E-2"/>
+    <n v="6.5217391304347823"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="4.710144927536232E-2"/>
+    <n v="7.0652173913043477"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="5.0724637681159424E-2"/>
+    <n v="7.608695652173914"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="5.434782608695652E-2"/>
+    <n v="8.1521739130434785"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="5.7971014492753624E-2"/>
+    <n v="8.695652173913043"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="17"/>
+    <n v="17"/>
+    <n v="6.1594202898550728E-2"/>
+    <n v="9.2391304347826093"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="6.5217391304347824E-2"/>
+    <n v="9.7826086956521738"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="6.8840579710144928E-2"/>
+    <n v="10.326086956521738"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="7.2463768115942032E-2"/>
+    <n v="10.869565217391305"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="7.6086956521739135E-2"/>
+    <n v="11.413043478260871"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="7.9710144927536225E-2"/>
+    <n v="11.956521739130434"/>
+    <x v="6"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <n v="23"/>
+    <n v="23"/>
+    <n v="8.3333333333333329E-2"/>
+    <n v="12.5"/>
+    <x v="13"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="0.01"/>
+    <n v="1.5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0.01"/>
+    <n v="1.5"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="0.02"/>
+    <n v="3"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.02"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="0.03"/>
+    <n v="4.5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="0.03"/>
+    <n v="4.5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="0.03"/>
+    <n v="4.5"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="0.04"/>
+    <n v="6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="9"/>
+    <n v="20"/>
+    <n v="0.04"/>
+    <n v="6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="0.04"/>
+    <n v="6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="11"/>
+    <n v="25"/>
+    <n v="0.05"/>
+    <n v="7.5"/>
+    <x v="0"/>
+    <s v="image"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="0.06"/>
+    <n v="9"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="13"/>
+    <n v="30"/>
+    <n v="0.06"/>
+    <n v="9"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="0.06"/>
+    <n v="9"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="15"/>
+    <n v="35"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.500000000000002"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="16"/>
+    <n v="40"/>
+    <n v="0.08"/>
+    <n v="12"/>
+    <x v="0"/>
+    <s v="graph"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="17"/>
+    <n v="45"/>
+    <n v="0.09"/>
+    <n v="13.5"/>
+    <x v="5"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="18"/>
+    <n v="60"/>
+    <n v="0.12"/>
+    <n v="18"/>
+    <x v="13"/>
+    <s v="map"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="19"/>
+    <n v="70"/>
+    <n v="0.14000000000000001"/>
+    <n v="21.000000000000004"/>
+    <x v="0"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="9.5238095238095247E-3"/>
+    <n v="1.4285714285714286"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="1.9047619047619049E-2"/>
+    <n v="2.8571428571428572"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="1.9047619047619049E-2"/>
+    <n v="2.8571428571428572"/>
+    <x v="2"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="4.2857142857142856"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="4.2857142857142856"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="4.2857142857142856"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="3.8095238095238099E-2"/>
+    <n v="5.7142857142857144"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="14"/>
+    <n v="20"/>
+    <n v="3.8095238095238099E-2"/>
+    <n v="5.7142857142857144"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="3.8095238095238099E-2"/>
+    <n v="5.7142857142857144"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="16"/>
+    <n v="25"/>
+    <n v="4.7619047619047616E-2"/>
+    <n v="7.1428571428571423"/>
+    <x v="0"/>
+    <s v="image"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="17"/>
+    <n v="30"/>
+    <n v="5.7142857142857141E-2"/>
+    <n v="8.5714285714285712"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="18"/>
+    <n v="30"/>
+    <n v="5.7142857142857141E-2"/>
+    <n v="8.5714285714285712"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="19"/>
+    <n v="30"/>
+    <n v="5.7142857142857141E-2"/>
+    <n v="8.5714285714285712"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="20"/>
+    <n v="35"/>
+    <n v="6.6666666666666666E-2"/>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="encryption"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="21"/>
+    <n v="40"/>
+    <n v="7.6190476190476197E-2"/>
+    <n v="11.428571428571429"/>
+    <x v="0"/>
+    <s v="graph"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="22"/>
+    <n v="45"/>
+    <n v="8.5714285714285715E-2"/>
+    <n v="12.857142857142858"/>
+    <x v="5"/>
+    <s v="puzzle"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="23"/>
+    <n v="60"/>
+    <n v="0.11428571428571428"/>
+    <n v="17.142857142857142"/>
+    <x v="13"/>
+    <s v="map"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="24"/>
+    <n v="70"/>
+    <n v="0.13333333333333333"/>
+    <n v="20"/>
+    <x v="0"/>
+    <s v="encryption"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2179C14-3F25-46CA-A284-FF6618B0260F}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="9"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Category" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,16 +3929,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009FF990-46F2-4A2C-BECD-5761BFAD10EA}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,13 +3952,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -488,11 +3975,15 @@
         <f>C2/214</f>
         <v>9.3457943925233638E-3</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" s="1">
+        <f>D2*150</f>
+        <v>1.4018691588785046</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -503,14 +3994,18 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D36" si="0">C3/214</f>
+        <f t="shared" ref="D3:D19" si="0">C3/214</f>
         <v>1.4018691588785047E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="1">D3*150</f>
+        <v>2.1028037383177569</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -524,11 +4019,15 @@
         <f t="shared" si="0"/>
         <v>1.4018691588785047E-2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1028037383177569</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -542,11 +4041,15 @@
         <f t="shared" si="0"/>
         <v>1.8691588785046728E-2</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8037383177570092</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -560,11 +4063,15 @@
         <f t="shared" si="0"/>
         <v>2.336448598130841E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5046728971962615</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -578,11 +4085,15 @@
         <f t="shared" si="0"/>
         <v>2.8037383177570093E-2</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2056074766355138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -596,11 +4107,15 @@
         <f t="shared" si="0"/>
         <v>2.8037383177570093E-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2056074766355138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -614,11 +4129,15 @@
         <f t="shared" si="0"/>
         <v>3.2710280373831772E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9065420560747661</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -632,11 +4151,15 @@
         <f t="shared" si="0"/>
         <v>3.7383177570093455E-2</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6074766355140184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -650,11 +4173,15 @@
         <f t="shared" si="0"/>
         <v>4.2056074766355138E-2</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3084112149532707</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -668,14 +4195,18 @@
         <f t="shared" si="0"/>
         <v>4.6728971962616821E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.009345794392523</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -689,14 +4220,18 @@
         <f t="shared" si="0"/>
         <v>5.1401869158878503E-2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7102803738317753</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -710,11 +4245,15 @@
         <f t="shared" si="0"/>
         <v>5.6074766355140186E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4112149532710276</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -728,14 +4267,18 @@
         <f t="shared" si="0"/>
         <v>6.0747663551401869E-2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1121495327102799</v>
+      </c>
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -749,11 +4292,15 @@
         <f t="shared" si="0"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>17.523364485981308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -767,11 +4314,15 @@
         <f t="shared" si="0"/>
         <v>0.16355140186915887</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>24.532710280373831</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -785,11 +4336,15 @@
         <f t="shared" si="0"/>
         <v>0.14018691588785046</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>21.028037383177569</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -803,14 +4358,18 @@
         <f t="shared" si="0"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>17.523364485981308</v>
       </c>
       <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -824,11 +4383,15 @@
         <f>C20/117</f>
         <v>8.5470085470085479E-3</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -839,14 +4402,18 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D36" si="1">C21/117</f>
+        <f t="shared" ref="D21:D36" si="2">C21/117</f>
         <v>1.7094017094017096E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -857,14 +4424,18 @@
         <v>3</v>
       </c>
       <c r="D22">
+        <f t="shared" si="2"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -875,14 +4446,18 @@
         <v>3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="2"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="E23" t="s">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="F23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -893,17 +4468,21 @@
         <v>4</v>
       </c>
       <c r="D24">
+        <f t="shared" si="2"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>3.4188034188034191E-2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
+        <v>5.1282051282051286</v>
       </c>
       <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -914,14 +4493,18 @@
         <v>4</v>
       </c>
       <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>3.4188034188034191E-2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.1282051282051286</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -932,14 +4515,18 @@
         <v>5</v>
       </c>
       <c r="D26">
+        <f t="shared" si="2"/>
+        <v>4.2735042735042736E-2</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>4.2735042735042736E-2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.4102564102564106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -950,14 +4537,18 @@
         <v>6</v>
       </c>
       <c r="D27">
+        <f t="shared" si="2"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -968,14 +4559,18 @@
         <v>6</v>
       </c>
       <c r="D28">
+        <f t="shared" si="2"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -986,17 +4581,21 @@
         <v>7</v>
       </c>
       <c r="D29">
+        <f t="shared" si="2"/>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>5.9829059829059832E-2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -1007,14 +4606,18 @@
         <v>8</v>
       </c>
       <c r="D30">
+        <f t="shared" si="2"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>6.8376068376068383E-2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10.256410256410257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -1025,14 +4628,18 @@
         <v>8</v>
       </c>
       <c r="D31">
+        <f t="shared" si="2"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>6.8376068376068383E-2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10.256410256410257</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -1043,17 +4650,21 @@
         <v>10</v>
       </c>
       <c r="D32">
+        <f t="shared" si="2"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>8.5470085470085472E-2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
+        <v>12.820512820512821</v>
       </c>
       <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -1064,17 +4675,21 @@
         <v>10</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>8.5470085470085472E-2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
+        <v>12.820512820512821</v>
       </c>
       <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -1085,14 +4700,18 @@
         <v>11</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>9.4017094017094016E-2</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>9.4017094017094016E-2</v>
-      </c>
-      <c r="E34" t="s">
+        <v>14.102564102564102</v>
+      </c>
+      <c r="F34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -1103,17 +4722,21 @@
         <v>14</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.11965811965811966</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>0.11965811965811966</v>
-      </c>
-      <c r="E35" t="s">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="F35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -1124,17 +4747,3165 @@
         <v>15</v>
       </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>0.12820512820512819</v>
-      </c>
-      <c r="E36" t="s">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f>C37/250</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f>C38/250</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f>C39/250</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <f>C40/250</f>
+        <v>0.02</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <f>C41/250</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <f>C42/250</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <f>C43/250</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <f>C44/250</f>
+        <v>0.04</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <f>C45/250</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <f>C46/250</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <f>C47/250</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <f>C48/250</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <f>C49/250</f>
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2014</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <f>C50/250</f>
+        <v>0.12</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2014</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <f>C51/250</f>
+        <v>0.12</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2014</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <f>C52/250</f>
+        <v>0.24</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <f>C53/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f>C54/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2015</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <f>C55/500</f>
+        <v>0.02</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2015</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <f>C56/500</f>
+        <v>0.02</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2015</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <f>C57/500</f>
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2015</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <f>C58/500</f>
+        <v>0.04</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2015</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <f>C59/500</f>
+        <v>0.05</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2015</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <f>C60/500</f>
+        <v>0.06</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2015</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <f>C61/500</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="1"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2015</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
+      </c>
+      <c r="D62">
+        <f>C62/500</f>
+        <v>0.08</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2015</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <f>C63/500</f>
+        <v>0.09</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2015</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <f>C64/500</f>
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2015</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <f>C65/500</f>
+        <v>0.12</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2015</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <f>C66/500</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2015</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>80</v>
+      </c>
+      <c r="D67">
+        <f>C67/500</f>
+        <v>0.16</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E168" si="3">D67*150</f>
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2016</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <f>C68/465</f>
+        <v>1.0752688172043012E-2</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6129032258064517</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2016</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D102" si="4">C69/465</f>
+        <v>1.0752688172043012E-2</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6129032258064517</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2016</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2016</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2016</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="3"/>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2016</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="3"/>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2016</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2016</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2016</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>5.3763440860215055E-2</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="3"/>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2016</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>5.3763440860215055E-2</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2016</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2016</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>7.5268817204301078E-2</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>11.290322580645162</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2016</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>8.6021505376344093E-2</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="3"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2016</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>45</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="3"/>
+        <v>14.516129032258064</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2016</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>0.10752688172043011</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="3"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2016</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>0.11827956989247312</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="3"/>
+        <v>17.741935483870968</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2016</v>
+      </c>
+      <c r="B84">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2017</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f>C85/501</f>
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29940119760479039</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2017</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:D125" si="5">C86/501</f>
+        <v>9.9800399201596807E-3</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4970059880239521</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2017</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>9.9800399201596807E-3</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4970059880239521</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2017</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>1.9960079840319361E-2</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9940119760479043</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2017</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>1.9960079840319361E-2</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9940119760479043</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2017</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>2.9940119760479042E-2</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4910179640718564</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2017</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>2.9940119760479042E-2</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4910179640718564</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2017</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>3.9920159680638723E-2</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9880239520958085</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2017</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>3.9920159680638723E-2</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9880239520958085</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2017</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>4.9900199600798403E-2</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4850299401197606</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2017</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>4.9900199600798403E-2</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4850299401197606</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2017</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>5.9880239520958084E-2</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9820359281437128</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2017</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>6.9860279441117765E-2</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="3"/>
+        <v>10.479041916167665</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2017</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>7.9840319361277445E-2</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="3"/>
+        <v>11.976047904191617</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2017</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>8.9820359281437126E-2</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="3"/>
+        <v>13.473053892215569</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2017</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>9.9800399201596807E-2</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="3"/>
+        <v>14.970059880239521</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2017</v>
+      </c>
+      <c r="B101">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>0.13972055888223553</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="3"/>
+        <v>20.95808383233533</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2017</v>
+      </c>
+      <c r="B102">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>0.15968063872255489</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="3"/>
+        <v>23.952095808383234</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2017</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <f>C103/276</f>
+        <v>3.6231884057971015E-3</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2017</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ref="D104:D144" si="6">C104/276</f>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2017</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="6"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6304347826086956</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2017</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="6"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2017</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="6"/>
+        <v>1.8115942028985508E-2</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7173913043478262</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2017</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2608695652173911</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2017</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="6"/>
+        <v>2.5362318840579712E-2</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="3"/>
+        <v>3.804347826086957</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2017</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="6"/>
+        <v>2.8985507246376812E-2</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2017</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="6"/>
+        <v>3.2608695652173912E-2</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8913043478260869</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2017</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="6"/>
+        <v>3.6231884057971016E-2</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2017</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="6"/>
+        <v>3.9855072463768113E-2</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9782608695652169</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2017</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="6"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2017</v>
+      </c>
+      <c r="B115">
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="6"/>
+        <v>4.710144927536232E-2</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0652173913043477</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2017</v>
+      </c>
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="6"/>
+        <v>5.0724637681159424E-2</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" si="3"/>
+        <v>7.608695652173914</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2017</v>
+      </c>
+      <c r="B117">
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="6"/>
+        <v>5.434782608695652E-2</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1521739130434785</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2017</v>
+      </c>
+      <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="6"/>
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="3"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2017</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>17</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="6"/>
+        <v>6.1594202898550728E-2</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826093</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2017</v>
+      </c>
+      <c r="B120">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="6"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="3"/>
+        <v>9.7826086956521738</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2017</v>
+      </c>
+      <c r="B121">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="6"/>
+        <v>6.8840579710144928E-2</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" si="3"/>
+        <v>10.326086956521738</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2017</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="6"/>
+        <v>7.2463768115942032E-2</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="3"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2017</v>
+      </c>
+      <c r="B123">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>21</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="6"/>
+        <v>7.6086956521739135E-2</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="3"/>
+        <v>11.413043478260871</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2017</v>
+      </c>
+      <c r="B124">
+        <v>22</v>
+      </c>
+      <c r="C124">
+        <v>22</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="6"/>
+        <v>7.9710144927536225E-2</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="3"/>
+        <v>11.956521739130434</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2017</v>
+      </c>
+      <c r="B125">
+        <v>23</v>
+      </c>
+      <c r="C125">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2018</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <f>C126/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2018</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ref="D127:D168" si="7">C127/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2018</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2018</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2018</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="E130" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2018</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2018</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="E132" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2018</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="E133" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2018</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="E134" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2018</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="E135" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2018</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="E136" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2018</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>30</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="E137" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2018</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="E138" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2018</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="E139" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2018</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>35</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E140" s="1">
+        <f t="shared" si="3"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2018</v>
+      </c>
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>40</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+      <c r="E141" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2018</v>
+      </c>
+      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>45</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="7"/>
+        <v>0.09</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2018</v>
+      </c>
+      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>60</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2018</v>
+      </c>
+      <c r="B144">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <v>70</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="3"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2018</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <f>C145/525</f>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2018</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ref="D146:D168" si="8">C146/525</f>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2018</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="8"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2018</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="8"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E148" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2018</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="8"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2018</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="8"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E150" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2018</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="8"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="E151" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2018</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="8"/>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="E152" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2018</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="8"/>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="E153" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2018</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>15</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2018</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2018</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2018</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="8"/>
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2018</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="8"/>
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2018</v>
+      </c>
+      <c r="B159">
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="8"/>
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2018</v>
+      </c>
+      <c r="B160">
+        <v>16</v>
+      </c>
+      <c r="C160">
+        <v>25</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="8"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2018</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2018</v>
+      </c>
+      <c r="B162">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E162" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2018</v>
+      </c>
+      <c r="B163">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>30</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E163" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2018</v>
+      </c>
+      <c r="B164">
+        <v>20</v>
+      </c>
+      <c r="C164">
+        <v>35</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E164" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2018</v>
+      </c>
+      <c r="B165">
+        <v>21</v>
+      </c>
+      <c r="C165">
+        <v>40</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="8"/>
+        <v>7.6190476190476197E-2</v>
+      </c>
+      <c r="E165" s="1">
+        <f t="shared" si="3"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2018</v>
+      </c>
+      <c r="B166">
+        <v>22</v>
+      </c>
+      <c r="C166">
+        <v>45</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="8"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="E166" s="1">
+        <f t="shared" si="3"/>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2018</v>
+      </c>
+      <c r="B167">
+        <v>23</v>
+      </c>
+      <c r="C167">
+        <v>60</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="8"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="E167" s="1">
+        <f t="shared" si="3"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="F167" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2018</v>
+      </c>
+      <c r="B168">
+        <v>24</v>
+      </c>
+      <c r="C168">
+        <v>70</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E168" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DA4AB-1331-4940-9C3A-1F15B715010F}">
+  <dimension ref="A3:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>